--- a/python-data-viz-in-excel-start.xlsx
+++ b/python-data-viz-in-excel-start.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\georg\Documents\GitHub\blog-files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E3E1BD-F771-4786-81B0-504C024124C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F101F54-E170-4B49-9086-60E77F3CE633}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="18915" windowHeight="12676" xr2:uid="{87788C84-4F35-45B1-8C2A-71EE4AC07C4C}"/>
   </bookViews>
   <sheets>
-    <sheet name="vgsales" sheetId="2" r:id="rId1"/>
+    <sheet name="mpg" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="11">
   <si>
     <t>mpg</t>
   </si>
@@ -62,931 +62,13 @@
     <t>origin</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>usa</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle malibu</t>
-  </si>
-  <si>
-    <t>buick skylark 320</t>
-  </si>
-  <si>
-    <t>plymouth satellite</t>
-  </si>
-  <si>
-    <t>amc rebel sst</t>
-  </si>
-  <si>
-    <t>ford torino</t>
-  </si>
-  <si>
-    <t>ford galaxie 500</t>
-  </si>
-  <si>
-    <t>chevrolet impala</t>
-  </si>
-  <si>
-    <t>plymouth fury iii</t>
-  </si>
-  <si>
-    <t>pontiac catalina</t>
-  </si>
-  <si>
-    <t>amc ambassador dpl</t>
-  </si>
-  <si>
-    <t>dodge challenger se</t>
-  </si>
-  <si>
-    <t>plymouth 'cuda 340</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo</t>
-  </si>
-  <si>
-    <t>buick estate wagon (sw)</t>
   </si>
   <si>
     <t>japan</t>
   </si>
   <si>
-    <t>toyota corona mark ii</t>
-  </si>
-  <si>
-    <t>plymouth duster</t>
-  </si>
-  <si>
-    <t>amc hornet</t>
-  </si>
-  <si>
-    <t>ford maverick</t>
-  </si>
-  <si>
-    <t>datsun pl510</t>
-  </si>
-  <si>
     <t>europe</t>
-  </si>
-  <si>
-    <t>volkswagen 1131 deluxe sedan</t>
-  </si>
-  <si>
-    <t>peugeot 504</t>
-  </si>
-  <si>
-    <t>audi 100 ls</t>
-  </si>
-  <si>
-    <t>saab 99e</t>
-  </si>
-  <si>
-    <t>bmw 2002</t>
-  </si>
-  <si>
-    <t>amc gremlin</t>
-  </si>
-  <si>
-    <t>ford f250</t>
-  </si>
-  <si>
-    <t>chevy c20</t>
-  </si>
-  <si>
-    <t>dodge d200</t>
-  </si>
-  <si>
-    <t>hi 1200d</t>
-  </si>
-  <si>
-    <t>chevrolet vega 2300</t>
-  </si>
-  <si>
-    <t>toyota corona</t>
-  </si>
-  <si>
-    <t>ford pinto</t>
-  </si>
-  <si>
-    <t>plymouth satellite custom</t>
-  </si>
-  <si>
-    <t>ford torino 500</t>
-  </si>
-  <si>
-    <t>amc matador</t>
-  </si>
-  <si>
-    <t>pontiac catalina brougham</t>
-  </si>
-  <si>
-    <t>dodge monaco (sw)</t>
-  </si>
-  <si>
-    <t>ford country squire (sw)</t>
-  </si>
-  <si>
-    <t>pontiac safari (sw)</t>
-  </si>
-  <si>
-    <t>amc hornet sportabout (sw)</t>
-  </si>
-  <si>
-    <t>chevrolet vega (sw)</t>
-  </si>
-  <si>
-    <t>pontiac firebird</t>
-  </si>
-  <si>
-    <t>ford mustang</t>
-  </si>
-  <si>
-    <t>mercury capri 2000</t>
-  </si>
-  <si>
-    <t>opel 1900</t>
-  </si>
-  <si>
-    <t>peugeot 304</t>
-  </si>
-  <si>
-    <t>fiat 124b</t>
-  </si>
-  <si>
-    <t>toyota corolla 1200</t>
-  </si>
-  <si>
-    <t>datsun 1200</t>
-  </si>
-  <si>
-    <t>volkswagen model 111</t>
-  </si>
-  <si>
-    <t>plymouth cricket</t>
-  </si>
-  <si>
-    <t>toyota corona hardtop</t>
-  </si>
-  <si>
-    <t>dodge colt hardtop</t>
-  </si>
-  <si>
-    <t>volkswagen type 3</t>
-  </si>
-  <si>
-    <t>chevrolet vega</t>
-  </si>
-  <si>
-    <t>ford pinto runabout</t>
-  </si>
-  <si>
-    <t>amc ambassador sst</t>
-  </si>
-  <si>
-    <t>mercury marquis</t>
-  </si>
-  <si>
-    <t>buick lesabre custom</t>
-  </si>
-  <si>
-    <t>oldsmobile delta 88 royale</t>
-  </si>
-  <si>
-    <t>chrysler newport royal</t>
-  </si>
-  <si>
-    <t>mazda rx2 coupe</t>
-  </si>
-  <si>
-    <t>amc matador (sw)</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle concours (sw)</t>
-  </si>
-  <si>
-    <t>ford gran torino (sw)</t>
-  </si>
-  <si>
-    <t>plymouth satellite custom (sw)</t>
-  </si>
-  <si>
-    <t>volvo 145e (sw)</t>
-  </si>
-  <si>
-    <t>volkswagen 411 (sw)</t>
-  </si>
-  <si>
-    <t>peugeot 504 (sw)</t>
-  </si>
-  <si>
-    <t>renault 12 (sw)</t>
-  </si>
-  <si>
-    <t>ford pinto (sw)</t>
-  </si>
-  <si>
-    <t>datsun 510 (sw)</t>
-  </si>
-  <si>
-    <t>toyouta corona mark ii (sw)</t>
-  </si>
-  <si>
-    <t>dodge colt (sw)</t>
-  </si>
-  <si>
-    <t>toyota corolla 1600 (sw)</t>
-  </si>
-  <si>
-    <t>buick century 350</t>
-  </si>
-  <si>
-    <t>chevrolet malibu</t>
-  </si>
-  <si>
-    <t>ford gran torino</t>
-  </si>
-  <si>
-    <t>dodge coronet custom</t>
-  </si>
-  <si>
-    <t>mercury marquis brougham</t>
-  </si>
-  <si>
-    <t>chevrolet caprice classic</t>
-  </si>
-  <si>
-    <t>ford ltd</t>
-  </si>
-  <si>
-    <t>plymouth fury gran sedan</t>
-  </si>
-  <si>
-    <t>chrysler new yorker brougham</t>
-  </si>
-  <si>
-    <t>buick electra 225 custom</t>
-  </si>
-  <si>
-    <t>amc ambassador brougham</t>
-  </si>
-  <si>
-    <t>plymouth valiant</t>
-  </si>
-  <si>
-    <t>chevrolet nova custom</t>
-  </si>
-  <si>
-    <t>volkswagen super beetle</t>
-  </si>
-  <si>
-    <t>ford country</t>
-  </si>
-  <si>
-    <t>plymouth custom suburb</t>
-  </si>
-  <si>
-    <t>oldsmobile vista cruiser</t>
-  </si>
-  <si>
-    <t>toyota carina</t>
-  </si>
-  <si>
-    <t>datsun 610</t>
-  </si>
-  <si>
-    <t>maxda rx3</t>
-  </si>
-  <si>
-    <t>mercury capri v6</t>
-  </si>
-  <si>
-    <t>fiat 124 sport coupe</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo s</t>
-  </si>
-  <si>
-    <t>pontiac grand prix</t>
-  </si>
-  <si>
-    <t>fiat 128</t>
-  </si>
-  <si>
-    <t>opel manta</t>
-  </si>
-  <si>
-    <t>audi 100ls</t>
-  </si>
-  <si>
-    <t>volvo 144ea</t>
-  </si>
-  <si>
-    <t>dodge dart custom</t>
-  </si>
-  <si>
-    <t>saab 99le</t>
-  </si>
-  <si>
-    <t>toyota mark ii</t>
-  </si>
-  <si>
-    <t>oldsmobile omega</t>
-  </si>
-  <si>
-    <t>chevrolet nova</t>
-  </si>
-  <si>
-    <t>datsun b210</t>
-  </si>
-  <si>
-    <t>chevrolet chevelle malibu classic</t>
-  </si>
-  <si>
-    <t>plymouth satellite sebring</t>
-  </si>
-  <si>
-    <t>buick century luxus (sw)</t>
-  </si>
-  <si>
-    <t>dodge coronet custom (sw)</t>
-  </si>
-  <si>
-    <t>audi fox</t>
-  </si>
-  <si>
-    <t>volkswagen dasher</t>
-  </si>
-  <si>
-    <t>datsun 710</t>
-  </si>
-  <si>
-    <t>dodge colt</t>
-  </si>
-  <si>
-    <t>fiat 124 tc</t>
-  </si>
-  <si>
-    <t>honda civic</t>
-  </si>
-  <si>
-    <t>subaru</t>
-  </si>
-  <si>
-    <t>fiat x1.9</t>
-  </si>
-  <si>
-    <t>plymouth valiant custom</t>
-  </si>
-  <si>
-    <t>mercury monarch</t>
-  </si>
-  <si>
-    <t>chevrolet bel air</t>
-  </si>
-  <si>
-    <t>plymouth grand fury</t>
-  </si>
-  <si>
-    <t>buick century</t>
-  </si>
-  <si>
-    <t>chevroelt chevelle malibu</t>
-  </si>
-  <si>
-    <t>plymouth fury</t>
-  </si>
-  <si>
-    <t>buick skyhawk</t>
-  </si>
-  <si>
-    <t>chevrolet monza 2+2</t>
-  </si>
-  <si>
-    <t>ford mustang ii</t>
-  </si>
-  <si>
-    <t>toyota corolla</t>
-  </si>
-  <si>
-    <t>pontiac astro</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit</t>
-  </si>
-  <si>
-    <t>amc pacer</t>
-  </si>
-  <si>
-    <t>volvo 244dl</t>
-  </si>
-  <si>
-    <t>honda civic cvcc</t>
-  </si>
-  <si>
-    <t>fiat 131</t>
-  </si>
-  <si>
-    <t>capri ii</t>
-  </si>
-  <si>
-    <t>renault 12tl</t>
-  </si>
-  <si>
-    <t>dodge coronet brougham</t>
-  </si>
-  <si>
-    <t>chevrolet chevette</t>
-  </si>
-  <si>
-    <t>chevrolet woody</t>
-  </si>
-  <si>
-    <t>vw rabbit</t>
-  </si>
-  <si>
-    <t>dodge aspen se</t>
-  </si>
-  <si>
-    <t>ford granada ghia</t>
-  </si>
-  <si>
-    <t>pontiac ventura sj</t>
-  </si>
-  <si>
-    <t>amc pacer d/l</t>
-  </si>
-  <si>
-    <t>datsun b-210</t>
-  </si>
-  <si>
-    <t>volvo 245</t>
-  </si>
-  <si>
-    <t>plymouth volare premier v8</t>
-  </si>
-  <si>
-    <t>mercedes-benz 280s</t>
-  </si>
-  <si>
-    <t>cadillac seville</t>
-  </si>
-  <si>
-    <t>chevy c10</t>
-  </si>
-  <si>
-    <t>ford f108</t>
-  </si>
-  <si>
-    <t>dodge d100</t>
-  </si>
-  <si>
-    <t>honda accord cvcc</t>
-  </si>
-  <si>
-    <t>buick opel isuzu deluxe</t>
-  </si>
-  <si>
-    <t>renault 5 gtl</t>
-  </si>
-  <si>
-    <t>plymouth arrow gs</t>
-  </si>
-  <si>
-    <t>datsun f-10 hatchback</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass supreme</t>
-  </si>
-  <si>
-    <t>dodge monaco brougham</t>
-  </si>
-  <si>
-    <t>mercury cougar brougham</t>
-  </si>
-  <si>
-    <t>chevrolet concours</t>
-  </si>
-  <si>
-    <t>buick skylark</t>
-  </si>
-  <si>
-    <t>plymouth volare custom</t>
-  </si>
-  <si>
-    <t>ford granada</t>
-  </si>
-  <si>
-    <t>pontiac grand prix lj</t>
-  </si>
-  <si>
-    <t>chevrolet monte carlo landau</t>
-  </si>
-  <si>
-    <t>chrysler cordoba</t>
-  </si>
-  <si>
-    <t>ford thunderbird</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit custom</t>
-  </si>
-  <si>
-    <t>pontiac sunbird coupe</t>
-  </si>
-  <si>
-    <t>toyota corolla liftback</t>
-  </si>
-  <si>
-    <t>ford mustang ii 2+2</t>
-  </si>
-  <si>
-    <t>dodge colt m/m</t>
-  </si>
-  <si>
-    <t>subaru dl</t>
-  </si>
-  <si>
-    <t>datsun 810</t>
-  </si>
-  <si>
-    <t>bmw 320i</t>
-  </si>
-  <si>
-    <t>mazda rx-4</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit custom diesel</t>
-  </si>
-  <si>
-    <t>ford fiesta</t>
-  </si>
-  <si>
-    <t>mazda glc deluxe</t>
-  </si>
-  <si>
-    <t>datsun b210 gx</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass salon brougham</t>
-  </si>
-  <si>
-    <t>dodge diplomat</t>
-  </si>
-  <si>
-    <t>mercury monarch ghia</t>
-  </si>
-  <si>
-    <t>pontiac phoenix lj</t>
-  </si>
-  <si>
-    <t>ford fairmont (auto)</t>
-  </si>
-  <si>
-    <t>ford fairmont (man)</t>
-  </si>
-  <si>
-    <t>plymouth volare</t>
-  </si>
-  <si>
-    <t>amc concord</t>
-  </si>
-  <si>
-    <t>buick century special</t>
-  </si>
-  <si>
-    <t>mercury zephyr</t>
-  </si>
-  <si>
-    <t>dodge aspen</t>
-  </si>
-  <si>
-    <t>amc concord d/l</t>
-  </si>
-  <si>
-    <t>buick regal sport coupe (turbo)</t>
-  </si>
-  <si>
-    <t>ford futura</t>
-  </si>
-  <si>
-    <t>dodge magnum xe</t>
-  </si>
-  <si>
-    <t>datsun 510</t>
-  </si>
-  <si>
-    <t>dodge omni</t>
-  </si>
-  <si>
-    <t>toyota celica gt liftback</t>
-  </si>
-  <si>
-    <t>plymouth sapporo</t>
-  </si>
-  <si>
-    <t>oldsmobile starfire sx</t>
-  </si>
-  <si>
-    <t>datsun 200-sx</t>
-  </si>
-  <si>
-    <t>audi 5000</t>
-  </si>
-  <si>
-    <t>volvo 264gl</t>
-  </si>
-  <si>
-    <t>saab 99gle</t>
-  </si>
-  <si>
-    <t>peugeot 604sl</t>
-  </si>
-  <si>
-    <t>volkswagen scirocco</t>
-  </si>
-  <si>
-    <t>honda accord lx</t>
-  </si>
-  <si>
-    <t>pontiac lemans v6</t>
-  </si>
-  <si>
-    <t>mercury zephyr 6</t>
-  </si>
-  <si>
-    <t>ford fairmont 4</t>
-  </si>
-  <si>
-    <t>amc concord dl 6</t>
-  </si>
-  <si>
-    <t>dodge aspen 6</t>
-  </si>
-  <si>
-    <t>ford ltd landau</t>
-  </si>
-  <si>
-    <t>mercury grand marquis</t>
-  </si>
-  <si>
-    <t>dodge st. regis</t>
-  </si>
-  <si>
-    <t>chevrolet malibu classic (sw)</t>
-  </si>
-  <si>
-    <t>chrysler lebaron town @ country (sw)</t>
-  </si>
-  <si>
-    <t>vw rabbit custom</t>
-  </si>
-  <si>
-    <t>maxda glc deluxe</t>
-  </si>
-  <si>
-    <t>dodge colt hatchback custom</t>
-  </si>
-  <si>
-    <t>amc spirit dl</t>
-  </si>
-  <si>
-    <t>mercedes benz 300d</t>
-  </si>
-  <si>
-    <t>cadillac eldorado</t>
-  </si>
-  <si>
-    <t>plymouth horizon</t>
-  </si>
-  <si>
-    <t>plymouth horizon tc3</t>
-  </si>
-  <si>
-    <t>datsun 210</t>
-  </si>
-  <si>
-    <t>fiat strada custom</t>
-  </si>
-  <si>
-    <t>buick skylark limited</t>
-  </si>
-  <si>
-    <t>chevrolet citation</t>
-  </si>
-  <si>
-    <t>oldsmobile omega brougham</t>
-  </si>
-  <si>
-    <t>pontiac phoenix</t>
-  </si>
-  <si>
-    <t>toyota corolla tercel</t>
-  </si>
-  <si>
-    <t>datsun 310</t>
-  </si>
-  <si>
-    <t>ford fairmont</t>
-  </si>
-  <si>
-    <t>audi 4000</t>
-  </si>
-  <si>
-    <t>toyota corona liftback</t>
-  </si>
-  <si>
-    <t>mazda 626</t>
-  </si>
-  <si>
-    <t>datsun 510 hatchback</t>
-  </si>
-  <si>
-    <t>mazda glc</t>
-  </si>
-  <si>
-    <t>vw rabbit c (diesel)</t>
-  </si>
-  <si>
-    <t>vw dasher (diesel)</t>
-  </si>
-  <si>
-    <t>audi 5000s (diesel)</t>
-  </si>
-  <si>
-    <t>mercedes-benz 240d</t>
-  </si>
-  <si>
-    <t>honda civic 1500 gl</t>
-  </si>
-  <si>
-    <t>renault lecar deluxe</t>
-  </si>
-  <si>
-    <t>vokswagen rabbit</t>
-  </si>
-  <si>
-    <t>datsun 280-zx</t>
-  </si>
-  <si>
-    <t>mazda rx-7 gs</t>
-  </si>
-  <si>
-    <t>triumph tr7 coupe</t>
-  </si>
-  <si>
-    <t>ford mustang cobra</t>
-  </si>
-  <si>
-    <t>honda accord</t>
-  </si>
-  <si>
-    <t>plymouth reliant</t>
-  </si>
-  <si>
-    <t>dodge aries wagon (sw)</t>
-  </si>
-  <si>
-    <t>toyota starlet</t>
-  </si>
-  <si>
-    <t>plymouth champ</t>
-  </si>
-  <si>
-    <t>honda civic 1300</t>
-  </si>
-  <si>
-    <t>datsun 210 mpg</t>
-  </si>
-  <si>
-    <t>toyota tercel</t>
-  </si>
-  <si>
-    <t>mazda glc 4</t>
-  </si>
-  <si>
-    <t>plymouth horizon 4</t>
-  </si>
-  <si>
-    <t>ford escort 4w</t>
-  </si>
-  <si>
-    <t>ford escort 2h</t>
-  </si>
-  <si>
-    <t>volkswagen jetta</t>
-  </si>
-  <si>
-    <t>renault 18i</t>
-  </si>
-  <si>
-    <t>honda prelude</t>
-  </si>
-  <si>
-    <t>datsun 200sx</t>
-  </si>
-  <si>
-    <t>peugeot 505s turbo diesel</t>
-  </si>
-  <si>
-    <t>volvo diesel</t>
-  </si>
-  <si>
-    <t>toyota cressida</t>
-  </si>
-  <si>
-    <t>datsun 810 maxima</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass ls</t>
-  </si>
-  <si>
-    <t>ford granada gl</t>
-  </si>
-  <si>
-    <t>chrysler lebaron salon</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier wagon</t>
-  </si>
-  <si>
-    <t>chevrolet cavalier 2-door</t>
-  </si>
-  <si>
-    <t>pontiac j2000 se hatchback</t>
-  </si>
-  <si>
-    <t>dodge aries se</t>
-  </si>
-  <si>
-    <t>ford fairmont futura</t>
-  </si>
-  <si>
-    <t>amc concord dl</t>
-  </si>
-  <si>
-    <t>volkswagen rabbit l</t>
-  </si>
-  <si>
-    <t>mazda glc custom l</t>
-  </si>
-  <si>
-    <t>mazda glc custom</t>
-  </si>
-  <si>
-    <t>plymouth horizon miser</t>
-  </si>
-  <si>
-    <t>mercury lynx l</t>
-  </si>
-  <si>
-    <t>nissan stanza xe</t>
-  </si>
-  <si>
-    <t>honda civic (auto)</t>
-  </si>
-  <si>
-    <t>datsun 310 gx</t>
-  </si>
-  <si>
-    <t>buick century limited</t>
-  </si>
-  <si>
-    <t>oldsmobile cutlass ciera (diesel)</t>
-  </si>
-  <si>
-    <t>chrysler lebaron medallion</t>
-  </si>
-  <si>
-    <t>ford granada l</t>
-  </si>
-  <si>
-    <t>toyota celica gt</t>
-  </si>
-  <si>
-    <t>dodge charger 2.2</t>
-  </si>
-  <si>
-    <t>chevrolet camaro</t>
-  </si>
-  <si>
-    <t>ford mustang gl</t>
-  </si>
-  <si>
-    <t>vw pickup</t>
-  </si>
-  <si>
-    <t>dodge rampage</t>
-  </si>
-  <si>
-    <t>ford ranger</t>
-  </si>
-  <si>
-    <t>chevy s-10</t>
   </si>
 </sst>
 </file>
@@ -1042,9 +124,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D8C41A-C008-40A8-8B65-E09FA8A4A23D}" name="mpg" displayName="mpg" ref="A1:I399" totalsRowShown="0">
-  <autoFilter ref="A1:I399" xr:uid="{03D8C41A-C008-40A8-8B65-E09FA8A4A23D}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{03D8C41A-C008-40A8-8B65-E09FA8A4A23D}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
+  <autoFilter ref="A1:H399" xr:uid="{03D8C41A-C008-40A8-8B65-E09FA8A4A23D}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{48C6DC52-FFCF-43F0-B30F-F69B3C102CDD}" name="mpg"/>
     <tableColumn id="2" xr3:uid="{EADC9795-C832-4666-A5F1-A4EADB18A1EF}" name="cylinders"/>
     <tableColumn id="3" xr3:uid="{39B03BF6-F7FD-4C59-924A-A1A6FB9002B2}" name="displacement"/>
@@ -1053,7 +135,6 @@
     <tableColumn id="6" xr3:uid="{388E6435-3AEB-47FC-8783-3F91B03B3910}" name="acceleration"/>
     <tableColumn id="7" xr3:uid="{59AD319D-C050-4971-9861-C569ED00E22A}" name="model_year"/>
     <tableColumn id="8" xr3:uid="{CEC4B5C0-6772-486B-8910-7B80A5248F41}" name="origin"/>
-    <tableColumn id="9" xr3:uid="{5005FBE0-DF5E-4CAC-AA79-E9DB36AB9650}" name="name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1376,11 +457,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90CDA04-8C43-4254-BCF8-5896515456A3}">
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:H399"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.65"/>
   <cols>
@@ -1391,7 +470,7 @@
     <col min="8" max="8" width="9.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1416,11 +495,8 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.65">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A2">
         <v>18</v>
       </c>
@@ -1443,13 +519,10 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1472,13 +545,10 @@
         <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1501,13 +571,10 @@
         <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1530,13 +597,10 @@
         <v>70</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1559,13 +623,10 @@
         <v>70</v>
       </c>
       <c r="H6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1588,13 +649,10 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1617,13 +675,10 @@
         <v>70</v>
       </c>
       <c r="H8" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1646,13 +701,10 @@
         <v>70</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1675,13 +727,10 @@
         <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>9</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1704,13 +753,10 @@
         <v>70</v>
       </c>
       <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1733,13 +779,10 @@
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>9</v>
-      </c>
-      <c r="I12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1762,13 +805,10 @@
         <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1791,13 +831,10 @@
         <v>70</v>
       </c>
       <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1820,13 +857,10 @@
         <v>70</v>
       </c>
       <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1849,13 +883,10 @@
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1878,13 +909,10 @@
         <v>70</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1907,13 +935,10 @@
         <v>70</v>
       </c>
       <c r="H18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1936,13 +961,10 @@
         <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1965,13 +987,10 @@
         <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1994,13 +1013,10 @@
         <v>70</v>
       </c>
       <c r="H21" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A22">
         <v>25</v>
       </c>
@@ -2023,13 +1039,10 @@
         <v>70</v>
       </c>
       <c r="H22" t="s">
-        <v>30</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A23">
         <v>24</v>
       </c>
@@ -2052,13 +1065,10 @@
         <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
-      </c>
-      <c r="I23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A24">
         <v>25</v>
       </c>
@@ -2081,13 +1091,10 @@
         <v>70</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
-      </c>
-      <c r="I24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A25">
         <v>26</v>
       </c>
@@ -2110,13 +1117,10 @@
         <v>70</v>
       </c>
       <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A26">
         <v>21</v>
       </c>
@@ -2139,13 +1143,10 @@
         <v>70</v>
       </c>
       <c r="H26" t="s">
-        <v>9</v>
-      </c>
-      <c r="I26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A27">
         <v>10</v>
       </c>
@@ -2168,13 +1169,10 @@
         <v>70</v>
       </c>
       <c r="H27" t="s">
-        <v>9</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A28">
         <v>10</v>
       </c>
@@ -2197,13 +1195,10 @@
         <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>9</v>
-      </c>
-      <c r="I28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A29">
         <v>11</v>
       </c>
@@ -2226,13 +1221,10 @@
         <v>70</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
-      </c>
-      <c r="I29" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A30">
         <v>9</v>
       </c>
@@ -2255,13 +1247,10 @@
         <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>9</v>
-      </c>
-      <c r="I30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2284,13 +1273,10 @@
         <v>71</v>
       </c>
       <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A32">
         <v>28</v>
       </c>
@@ -2313,13 +1299,10 @@
         <v>71</v>
       </c>
       <c r="H32" t="s">
-        <v>9</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A33">
         <v>25</v>
       </c>
@@ -2342,13 +1325,10 @@
         <v>71</v>
       </c>
       <c r="H33" t="s">
-        <v>24</v>
-      </c>
-      <c r="I33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A34">
         <v>25</v>
       </c>
@@ -2368,13 +1348,10 @@
         <v>71</v>
       </c>
       <c r="H34" t="s">
-        <v>9</v>
-      </c>
-      <c r="I34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A35">
         <v>19</v>
       </c>
@@ -2397,13 +1374,10 @@
         <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>9</v>
-      </c>
-      <c r="I35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A36">
         <v>16</v>
       </c>
@@ -2426,13 +1400,10 @@
         <v>71</v>
       </c>
       <c r="H36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A37">
         <v>17</v>
       </c>
@@ -2455,13 +1426,10 @@
         <v>71</v>
       </c>
       <c r="H37" t="s">
-        <v>9</v>
-      </c>
-      <c r="I37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A38">
         <v>19</v>
       </c>
@@ -2484,13 +1452,10 @@
         <v>71</v>
       </c>
       <c r="H38" t="s">
-        <v>9</v>
-      </c>
-      <c r="I38" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A39">
         <v>18</v>
       </c>
@@ -2513,13 +1478,10 @@
         <v>71</v>
       </c>
       <c r="H39" t="s">
-        <v>9</v>
-      </c>
-      <c r="I39" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A40">
         <v>14</v>
       </c>
@@ -2542,13 +1504,10 @@
         <v>71</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
-      </c>
-      <c r="I40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2571,13 +1530,10 @@
         <v>71</v>
       </c>
       <c r="H41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I41" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2600,13 +1556,10 @@
         <v>71</v>
       </c>
       <c r="H42" t="s">
-        <v>9</v>
-      </c>
-      <c r="I42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2629,13 +1582,10 @@
         <v>71</v>
       </c>
       <c r="H43" t="s">
-        <v>9</v>
-      </c>
-      <c r="I43" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2658,13 +1608,10 @@
         <v>71</v>
       </c>
       <c r="H44" t="s">
-        <v>9</v>
-      </c>
-      <c r="I44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2687,13 +1634,10 @@
         <v>71</v>
       </c>
       <c r="H45" t="s">
-        <v>9</v>
-      </c>
-      <c r="I45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2716,13 +1660,10 @@
         <v>71</v>
       </c>
       <c r="H46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I46" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2745,13 +1686,10 @@
         <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
-      </c>
-      <c r="I47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2774,13 +1712,10 @@
         <v>71</v>
       </c>
       <c r="H48" t="s">
-        <v>9</v>
-      </c>
-      <c r="I48" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2803,13 +1738,10 @@
         <v>71</v>
       </c>
       <c r="H49" t="s">
-        <v>9</v>
-      </c>
-      <c r="I49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2832,13 +1764,10 @@
         <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2861,13 +1790,10 @@
         <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>9</v>
-      </c>
-      <c r="I51" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2890,13 +1816,10 @@
         <v>71</v>
       </c>
       <c r="H52" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2919,13 +1842,10 @@
         <v>71</v>
       </c>
       <c r="H53" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2948,13 +1868,10 @@
         <v>71</v>
       </c>
       <c r="H54" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2977,13 +1894,10 @@
         <v>71</v>
       </c>
       <c r="H55" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A56">
         <v>35</v>
       </c>
@@ -3006,13 +1920,10 @@
         <v>71</v>
       </c>
       <c r="H56" t="s">
-        <v>24</v>
-      </c>
-      <c r="I56" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A57">
         <v>27</v>
       </c>
@@ -3035,13 +1946,10 @@
         <v>71</v>
       </c>
       <c r="H57" t="s">
-        <v>30</v>
-      </c>
-      <c r="I57" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A58">
         <v>26</v>
       </c>
@@ -3064,13 +1972,10 @@
         <v>71</v>
       </c>
       <c r="H58" t="s">
-        <v>9</v>
-      </c>
-      <c r="I58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A59">
         <v>24</v>
       </c>
@@ -3093,13 +1998,10 @@
         <v>72</v>
       </c>
       <c r="H59" t="s">
-        <v>24</v>
-      </c>
-      <c r="I59" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A60">
         <v>25</v>
       </c>
@@ -3122,13 +2024,10 @@
         <v>72</v>
       </c>
       <c r="H60" t="s">
-        <v>9</v>
-      </c>
-      <c r="I60" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A61">
         <v>23</v>
       </c>
@@ -3151,13 +2050,10 @@
         <v>72</v>
       </c>
       <c r="H61" t="s">
-        <v>30</v>
-      </c>
-      <c r="I61" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A62">
         <v>20</v>
       </c>
@@ -3180,13 +2076,10 @@
         <v>72</v>
       </c>
       <c r="H62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A63">
         <v>21</v>
       </c>
@@ -3209,13 +2102,10 @@
         <v>72</v>
       </c>
       <c r="H63" t="s">
-        <v>9</v>
-      </c>
-      <c r="I63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A64">
         <v>13</v>
       </c>
@@ -3238,13 +2128,10 @@
         <v>72</v>
       </c>
       <c r="H64" t="s">
-        <v>9</v>
-      </c>
-      <c r="I64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A65">
         <v>14</v>
       </c>
@@ -3267,13 +2154,10 @@
         <v>72</v>
       </c>
       <c r="H65" t="s">
-        <v>9</v>
-      </c>
-      <c r="I65" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A66">
         <v>15</v>
       </c>
@@ -3296,13 +2180,10 @@
         <v>72</v>
       </c>
       <c r="H66" t="s">
-        <v>9</v>
-      </c>
-      <c r="I66" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A67">
         <v>14</v>
       </c>
@@ -3325,13 +2206,10 @@
         <v>72</v>
       </c>
       <c r="H67" t="s">
-        <v>9</v>
-      </c>
-      <c r="I67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A68">
         <v>17</v>
       </c>
@@ -3354,13 +2232,10 @@
         <v>72</v>
       </c>
       <c r="H68" t="s">
-        <v>9</v>
-      </c>
-      <c r="I68" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A69">
         <v>11</v>
       </c>
@@ -3383,13 +2258,10 @@
         <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
-      </c>
-      <c r="I69" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A70">
         <v>13</v>
       </c>
@@ -3412,13 +2284,10 @@
         <v>72</v>
       </c>
       <c r="H70" t="s">
-        <v>9</v>
-      </c>
-      <c r="I70" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A71">
         <v>12</v>
       </c>
@@ -3441,13 +2310,10 @@
         <v>72</v>
       </c>
       <c r="H71" t="s">
-        <v>9</v>
-      </c>
-      <c r="I71" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A72">
         <v>13</v>
       </c>
@@ -3470,13 +2336,10 @@
         <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>9</v>
-      </c>
-      <c r="I72" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A73">
         <v>19</v>
       </c>
@@ -3499,13 +2362,10 @@
         <v>72</v>
       </c>
       <c r="H73" t="s">
-        <v>24</v>
-      </c>
-      <c r="I73" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A74">
         <v>15</v>
       </c>
@@ -3528,13 +2388,10 @@
         <v>72</v>
       </c>
       <c r="H74" t="s">
-        <v>9</v>
-      </c>
-      <c r="I74" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A75">
         <v>13</v>
       </c>
@@ -3557,13 +2414,10 @@
         <v>72</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
-      </c>
-      <c r="I75" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A76">
         <v>13</v>
       </c>
@@ -3586,13 +2440,10 @@
         <v>72</v>
       </c>
       <c r="H76" t="s">
-        <v>9</v>
-      </c>
-      <c r="I76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A77">
         <v>14</v>
       </c>
@@ -3615,13 +2466,10 @@
         <v>72</v>
       </c>
       <c r="H77" t="s">
-        <v>9</v>
-      </c>
-      <c r="I77" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A78">
         <v>18</v>
       </c>
@@ -3644,13 +2492,10 @@
         <v>72</v>
       </c>
       <c r="H78" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A79">
         <v>22</v>
       </c>
@@ -3673,13 +2518,10 @@
         <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3702,13 +2544,10 @@
         <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3731,13 +2570,10 @@
         <v>72</v>
       </c>
       <c r="H81" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3760,13 +2596,10 @@
         <v>72</v>
       </c>
       <c r="H82" t="s">
-        <v>9</v>
-      </c>
-      <c r="I82" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3789,13 +2622,10 @@
         <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3818,13 +2648,10 @@
         <v>72</v>
       </c>
       <c r="H84" t="s">
-        <v>24</v>
-      </c>
-      <c r="I84" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3847,13 +2674,10 @@
         <v>72</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
-      </c>
-      <c r="I85" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3876,13 +2700,10 @@
         <v>72</v>
       </c>
       <c r="H86" t="s">
-        <v>24</v>
-      </c>
-      <c r="I86" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3905,13 +2726,10 @@
         <v>73</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
-      </c>
-      <c r="I87" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3934,13 +2752,10 @@
         <v>73</v>
       </c>
       <c r="H88" t="s">
-        <v>9</v>
-      </c>
-      <c r="I88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3963,13 +2778,10 @@
         <v>73</v>
       </c>
       <c r="H89" t="s">
-        <v>9</v>
-      </c>
-      <c r="I89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3992,13 +2804,10 @@
         <v>73</v>
       </c>
       <c r="H90" t="s">
-        <v>9</v>
-      </c>
-      <c r="I90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A91">
         <v>15</v>
       </c>
@@ -4021,13 +2830,10 @@
         <v>73</v>
       </c>
       <c r="H91" t="s">
-        <v>9</v>
-      </c>
-      <c r="I91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A92">
         <v>12</v>
       </c>
@@ -4050,13 +2856,10 @@
         <v>73</v>
       </c>
       <c r="H92" t="s">
-        <v>9</v>
-      </c>
-      <c r="I92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A93">
         <v>13</v>
       </c>
@@ -4079,13 +2882,10 @@
         <v>73</v>
       </c>
       <c r="H93" t="s">
-        <v>9</v>
-      </c>
-      <c r="I93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4108,13 +2908,10 @@
         <v>73</v>
       </c>
       <c r="H94" t="s">
-        <v>9</v>
-      </c>
-      <c r="I94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4137,13 +2934,10 @@
         <v>73</v>
       </c>
       <c r="H95" t="s">
-        <v>9</v>
-      </c>
-      <c r="I95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4166,13 +2960,10 @@
         <v>73</v>
       </c>
       <c r="H96" t="s">
-        <v>9</v>
-      </c>
-      <c r="I96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A97">
         <v>12</v>
       </c>
@@ -4195,13 +2986,10 @@
         <v>73</v>
       </c>
       <c r="H97" t="s">
-        <v>9</v>
-      </c>
-      <c r="I97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A98">
         <v>13</v>
       </c>
@@ -4224,13 +3012,10 @@
         <v>73</v>
       </c>
       <c r="H98" t="s">
-        <v>9</v>
-      </c>
-      <c r="I98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4253,13 +3038,10 @@
         <v>73</v>
       </c>
       <c r="H99" t="s">
-        <v>9</v>
-      </c>
-      <c r="I99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A100">
         <v>16</v>
       </c>
@@ -4282,13 +3064,10 @@
         <v>73</v>
       </c>
       <c r="H100" t="s">
-        <v>9</v>
-      </c>
-      <c r="I100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A101">
         <v>18</v>
       </c>
@@ -4311,13 +3090,10 @@
         <v>73</v>
       </c>
       <c r="H101" t="s">
-        <v>9</v>
-      </c>
-      <c r="I101" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A102">
         <v>18</v>
       </c>
@@ -4340,13 +3116,10 @@
         <v>73</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
-      </c>
-      <c r="I102" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A103">
         <v>23</v>
       </c>
@@ -4369,13 +3142,10 @@
         <v>73</v>
       </c>
       <c r="H103" t="s">
-        <v>9</v>
-      </c>
-      <c r="I103" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A104">
         <v>26</v>
       </c>
@@ -4398,13 +3168,10 @@
         <v>73</v>
       </c>
       <c r="H104" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A105">
         <v>11</v>
       </c>
@@ -4427,13 +3194,10 @@
         <v>73</v>
       </c>
       <c r="H105" t="s">
-        <v>9</v>
-      </c>
-      <c r="I105" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A106">
         <v>12</v>
       </c>
@@ -4456,13 +3220,10 @@
         <v>73</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
-      </c>
-      <c r="I106" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A107">
         <v>13</v>
       </c>
@@ -4485,13 +3246,10 @@
         <v>73</v>
       </c>
       <c r="H107" t="s">
-        <v>9</v>
-      </c>
-      <c r="I107" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A108">
         <v>12</v>
       </c>
@@ -4514,13 +3272,10 @@
         <v>73</v>
       </c>
       <c r="H108" t="s">
-        <v>9</v>
-      </c>
-      <c r="I108" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A109">
         <v>18</v>
       </c>
@@ -4543,13 +3298,10 @@
         <v>73</v>
       </c>
       <c r="H109" t="s">
-        <v>9</v>
-      </c>
-      <c r="I109" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A110">
         <v>20</v>
       </c>
@@ -4572,13 +3324,10 @@
         <v>73</v>
       </c>
       <c r="H110" t="s">
-        <v>24</v>
-      </c>
-      <c r="I110" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A111">
         <v>21</v>
       </c>
@@ -4601,13 +3350,10 @@
         <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>9</v>
-      </c>
-      <c r="I111" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A112">
         <v>22</v>
       </c>
@@ -4630,13 +3376,10 @@
         <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>24</v>
-      </c>
-      <c r="I112" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A113">
         <v>18</v>
       </c>
@@ -4659,13 +3402,10 @@
         <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>24</v>
-      </c>
-      <c r="I113" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A114">
         <v>19</v>
       </c>
@@ -4688,13 +3428,10 @@
         <v>73</v>
       </c>
       <c r="H114" t="s">
-        <v>9</v>
-      </c>
-      <c r="I114" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A115">
         <v>21</v>
       </c>
@@ -4717,13 +3454,10 @@
         <v>73</v>
       </c>
       <c r="H115" t="s">
-        <v>9</v>
-      </c>
-      <c r="I115" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A116">
         <v>26</v>
       </c>
@@ -4746,13 +3480,10 @@
         <v>73</v>
       </c>
       <c r="H116" t="s">
-        <v>30</v>
-      </c>
-      <c r="I116" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A117">
         <v>15</v>
       </c>
@@ -4775,13 +3506,10 @@
         <v>73</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
-      </c>
-      <c r="I117" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4804,13 +3532,10 @@
         <v>73</v>
       </c>
       <c r="H118" t="s">
-        <v>9</v>
-      </c>
-      <c r="I118" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4833,13 +3558,10 @@
         <v>73</v>
       </c>
       <c r="H119" t="s">
-        <v>30</v>
-      </c>
-      <c r="I119" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4862,13 +3584,10 @@
         <v>73</v>
       </c>
       <c r="H120" t="s">
-        <v>30</v>
-      </c>
-      <c r="I120" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4891,13 +3610,10 @@
         <v>73</v>
       </c>
       <c r="H121" t="s">
-        <v>30</v>
-      </c>
-      <c r="I121" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4920,13 +3636,10 @@
         <v>73</v>
       </c>
       <c r="H122" t="s">
-        <v>30</v>
-      </c>
-      <c r="I122" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4949,13 +3662,10 @@
         <v>73</v>
       </c>
       <c r="H123" t="s">
-        <v>9</v>
-      </c>
-      <c r="I123" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4978,13 +3688,10 @@
         <v>73</v>
       </c>
       <c r="H124" t="s">
-        <v>30</v>
-      </c>
-      <c r="I124" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A125">
         <v>20</v>
       </c>
@@ -5007,13 +3714,10 @@
         <v>73</v>
       </c>
       <c r="H125" t="s">
-        <v>24</v>
-      </c>
-      <c r="I125" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A126">
         <v>11</v>
       </c>
@@ -5036,13 +3740,10 @@
         <v>73</v>
       </c>
       <c r="H126" t="s">
-        <v>9</v>
-      </c>
-      <c r="I126" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A127">
         <v>20</v>
       </c>
@@ -5065,13 +3766,10 @@
         <v>74</v>
       </c>
       <c r="H127" t="s">
-        <v>9</v>
-      </c>
-      <c r="I127" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A128">
         <v>21</v>
       </c>
@@ -5091,13 +3789,10 @@
         <v>74</v>
       </c>
       <c r="H128" t="s">
-        <v>9</v>
-      </c>
-      <c r="I128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A129">
         <v>19</v>
       </c>
@@ -5120,13 +3815,10 @@
         <v>74</v>
       </c>
       <c r="H129" t="s">
-        <v>9</v>
-      </c>
-      <c r="I129" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A130">
         <v>15</v>
       </c>
@@ -5149,13 +3841,10 @@
         <v>74</v>
       </c>
       <c r="H130" t="s">
-        <v>9</v>
-      </c>
-      <c r="I130" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A131">
         <v>31</v>
       </c>
@@ -5178,13 +3867,10 @@
         <v>74</v>
       </c>
       <c r="H131" t="s">
-        <v>24</v>
-      </c>
-      <c r="I131" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A132">
         <v>26</v>
       </c>
@@ -5207,13 +3893,10 @@
         <v>74</v>
       </c>
       <c r="H132" t="s">
-        <v>9</v>
-      </c>
-      <c r="I132" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A133">
         <v>32</v>
       </c>
@@ -5236,13 +3919,10 @@
         <v>74</v>
       </c>
       <c r="H133" t="s">
-        <v>24</v>
-      </c>
-      <c r="I133" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A134">
         <v>25</v>
       </c>
@@ -5265,13 +3945,10 @@
         <v>74</v>
       </c>
       <c r="H134" t="s">
-        <v>9</v>
-      </c>
-      <c r="I134" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A135">
         <v>16</v>
       </c>
@@ -5294,13 +3971,10 @@
         <v>74</v>
       </c>
       <c r="H135" t="s">
-        <v>9</v>
-      </c>
-      <c r="I135" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5323,13 +3997,10 @@
         <v>74</v>
       </c>
       <c r="H136" t="s">
-        <v>9</v>
-      </c>
-      <c r="I136" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A137">
         <v>18</v>
       </c>
@@ -5352,13 +4023,10 @@
         <v>74</v>
       </c>
       <c r="H137" t="s">
-        <v>9</v>
-      </c>
-      <c r="I137" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A138">
         <v>16</v>
       </c>
@@ -5381,13 +4049,10 @@
         <v>74</v>
       </c>
       <c r="H138" t="s">
-        <v>9</v>
-      </c>
-      <c r="I138" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A139">
         <v>13</v>
       </c>
@@ -5410,13 +4075,10 @@
         <v>74</v>
       </c>
       <c r="H139" t="s">
-        <v>9</v>
-      </c>
-      <c r="I139" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A140">
         <v>14</v>
       </c>
@@ -5439,13 +4101,10 @@
         <v>74</v>
       </c>
       <c r="H140" t="s">
-        <v>9</v>
-      </c>
-      <c r="I140" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A141">
         <v>14</v>
       </c>
@@ -5468,13 +4127,10 @@
         <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
-      </c>
-      <c r="I141" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A142">
         <v>14</v>
       </c>
@@ -5497,13 +4153,10 @@
         <v>74</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
-      </c>
-      <c r="I142" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A143">
         <v>29</v>
       </c>
@@ -5526,13 +4179,10 @@
         <v>74</v>
       </c>
       <c r="H143" t="s">
-        <v>30</v>
-      </c>
-      <c r="I143" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A144">
         <v>26</v>
       </c>
@@ -5555,13 +4205,10 @@
         <v>74</v>
       </c>
       <c r="H144" t="s">
-        <v>30</v>
-      </c>
-      <c r="I144" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A145">
         <v>26</v>
       </c>
@@ -5584,13 +4231,10 @@
         <v>74</v>
       </c>
       <c r="H145" t="s">
-        <v>30</v>
-      </c>
-      <c r="I145" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5613,13 +4257,10 @@
         <v>74</v>
       </c>
       <c r="H146" t="s">
-        <v>24</v>
-      </c>
-      <c r="I146" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A147">
         <v>32</v>
       </c>
@@ -5642,13 +4283,10 @@
         <v>74</v>
       </c>
       <c r="H147" t="s">
-        <v>24</v>
-      </c>
-      <c r="I147" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A148">
         <v>28</v>
       </c>
@@ -5671,13 +4309,10 @@
         <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>9</v>
-      </c>
-      <c r="I148" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A149">
         <v>24</v>
       </c>
@@ -5700,13 +4335,10 @@
         <v>74</v>
       </c>
       <c r="H149" t="s">
-        <v>30</v>
-      </c>
-      <c r="I149" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A150">
         <v>26</v>
       </c>
@@ -5729,13 +4361,10 @@
         <v>74</v>
       </c>
       <c r="H150" t="s">
-        <v>30</v>
-      </c>
-      <c r="I150" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A151">
         <v>24</v>
       </c>
@@ -5758,13 +4387,10 @@
         <v>74</v>
       </c>
       <c r="H151" t="s">
-        <v>24</v>
-      </c>
-      <c r="I151" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A152">
         <v>26</v>
       </c>
@@ -5787,13 +4413,10 @@
         <v>74</v>
       </c>
       <c r="H152" t="s">
-        <v>24</v>
-      </c>
-      <c r="I152" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A153">
         <v>31</v>
       </c>
@@ -5816,13 +4439,10 @@
         <v>74</v>
       </c>
       <c r="H153" t="s">
-        <v>30</v>
-      </c>
-      <c r="I153" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A154">
         <v>19</v>
       </c>
@@ -5845,13 +4465,10 @@
         <v>75</v>
       </c>
       <c r="H154" t="s">
-        <v>9</v>
-      </c>
-      <c r="I154" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A155">
         <v>18</v>
       </c>
@@ -5874,13 +4491,10 @@
         <v>75</v>
       </c>
       <c r="H155" t="s">
-        <v>9</v>
-      </c>
-      <c r="I155" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A156">
         <v>15</v>
       </c>
@@ -5903,13 +4517,10 @@
         <v>75</v>
       </c>
       <c r="H156" t="s">
-        <v>9</v>
-      </c>
-      <c r="I156" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5932,13 +4543,10 @@
         <v>75</v>
       </c>
       <c r="H157" t="s">
-        <v>9</v>
-      </c>
-      <c r="I157" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5961,13 +4569,10 @@
         <v>75</v>
       </c>
       <c r="H158" t="s">
-        <v>9</v>
-      </c>
-      <c r="I158" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5990,13 +4595,10 @@
         <v>75</v>
       </c>
       <c r="H159" t="s">
-        <v>9</v>
-      </c>
-      <c r="I159" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A160">
         <v>16</v>
       </c>
@@ -6019,13 +4621,10 @@
         <v>75</v>
       </c>
       <c r="H160" t="s">
-        <v>9</v>
-      </c>
-      <c r="I160" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A161">
         <v>14</v>
       </c>
@@ -6048,13 +4647,10 @@
         <v>75</v>
       </c>
       <c r="H161" t="s">
-        <v>9</v>
-      </c>
-      <c r="I161" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A162">
         <v>17</v>
       </c>
@@ -6077,13 +4673,10 @@
         <v>75</v>
       </c>
       <c r="H162" t="s">
-        <v>9</v>
-      </c>
-      <c r="I162" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A163">
         <v>16</v>
       </c>
@@ -6106,13 +4699,10 @@
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
-      </c>
-      <c r="I163" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A164">
         <v>15</v>
       </c>
@@ -6135,13 +4725,10 @@
         <v>75</v>
       </c>
       <c r="H164" t="s">
-        <v>9</v>
-      </c>
-      <c r="I164" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A165">
         <v>18</v>
       </c>
@@ -6164,13 +4751,10 @@
         <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>9</v>
-      </c>
-      <c r="I165" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A166">
         <v>21</v>
       </c>
@@ -6193,13 +4777,10 @@
         <v>75</v>
       </c>
       <c r="H166" t="s">
-        <v>9</v>
-      </c>
-      <c r="I166" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A167">
         <v>20</v>
       </c>
@@ -6222,13 +4803,10 @@
         <v>75</v>
       </c>
       <c r="H167" t="s">
-        <v>9</v>
-      </c>
-      <c r="I167" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A168">
         <v>13</v>
       </c>
@@ -6251,13 +4829,10 @@
         <v>75</v>
       </c>
       <c r="H168" t="s">
-        <v>9</v>
-      </c>
-      <c r="I168" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A169">
         <v>29</v>
       </c>
@@ -6280,13 +4855,10 @@
         <v>75</v>
       </c>
       <c r="H169" t="s">
-        <v>24</v>
-      </c>
-      <c r="I169" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A170">
         <v>23</v>
       </c>
@@ -6309,13 +4881,10 @@
         <v>75</v>
       </c>
       <c r="H170" t="s">
-        <v>9</v>
-      </c>
-      <c r="I170" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A171">
         <v>20</v>
       </c>
@@ -6338,13 +4907,10 @@
         <v>75</v>
       </c>
       <c r="H171" t="s">
-        <v>9</v>
-      </c>
-      <c r="I171" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A172">
         <v>23</v>
       </c>
@@ -6367,13 +4933,10 @@
         <v>75</v>
       </c>
       <c r="H172" t="s">
-        <v>9</v>
-      </c>
-      <c r="I172" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A173">
         <v>24</v>
       </c>
@@ -6396,13 +4959,10 @@
         <v>75</v>
       </c>
       <c r="H173" t="s">
-        <v>24</v>
-      </c>
-      <c r="I173" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A174">
         <v>25</v>
       </c>
@@ -6425,13 +4985,10 @@
         <v>75</v>
       </c>
       <c r="H174" t="s">
-        <v>30</v>
-      </c>
-      <c r="I174" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A175">
         <v>24</v>
       </c>
@@ -6454,13 +5011,10 @@
         <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>24</v>
-      </c>
-      <c r="I175" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A176">
         <v>18</v>
       </c>
@@ -6483,13 +5037,10 @@
         <v>75</v>
       </c>
       <c r="H176" t="s">
-        <v>9</v>
-      </c>
-      <c r="I176" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A177">
         <v>29</v>
       </c>
@@ -6512,13 +5063,10 @@
         <v>75</v>
       </c>
       <c r="H177" t="s">
-        <v>30</v>
-      </c>
-      <c r="I177" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A178">
         <v>19</v>
       </c>
@@ -6541,13 +5089,10 @@
         <v>75</v>
       </c>
       <c r="H178" t="s">
-        <v>9</v>
-      </c>
-      <c r="I178" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A179">
         <v>23</v>
       </c>
@@ -6570,13 +5115,10 @@
         <v>75</v>
       </c>
       <c r="H179" t="s">
-        <v>30</v>
-      </c>
-      <c r="I179" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A180">
         <v>23</v>
       </c>
@@ -6599,13 +5141,10 @@
         <v>75</v>
       </c>
       <c r="H180" t="s">
-        <v>30</v>
-      </c>
-      <c r="I180" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A181">
         <v>22</v>
       </c>
@@ -6628,13 +5167,10 @@
         <v>75</v>
       </c>
       <c r="H181" t="s">
-        <v>30</v>
-      </c>
-      <c r="I181" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A182">
         <v>25</v>
       </c>
@@ -6657,13 +5193,10 @@
         <v>75</v>
       </c>
       <c r="H182" t="s">
-        <v>30</v>
-      </c>
-      <c r="I182" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A183">
         <v>33</v>
       </c>
@@ -6686,13 +5219,10 @@
         <v>75</v>
       </c>
       <c r="H183" t="s">
-        <v>24</v>
-      </c>
-      <c r="I183" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A184">
         <v>28</v>
       </c>
@@ -6715,13 +5245,10 @@
         <v>76</v>
       </c>
       <c r="H184" t="s">
-        <v>30</v>
-      </c>
-      <c r="I184" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A185">
         <v>25</v>
       </c>
@@ -6744,13 +5271,10 @@
         <v>76</v>
       </c>
       <c r="H185" t="s">
-        <v>30</v>
-      </c>
-      <c r="I185" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A186">
         <v>25</v>
       </c>
@@ -6773,13 +5297,10 @@
         <v>76</v>
       </c>
       <c r="H186" t="s">
-        <v>9</v>
-      </c>
-      <c r="I186" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A187">
         <v>26</v>
       </c>
@@ -6802,13 +5323,10 @@
         <v>76</v>
       </c>
       <c r="H187" t="s">
-        <v>9</v>
-      </c>
-      <c r="I187" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A188">
         <v>27</v>
       </c>
@@ -6831,13 +5349,10 @@
         <v>76</v>
       </c>
       <c r="H188" t="s">
-        <v>30</v>
-      </c>
-      <c r="I188" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -6860,13 +5375,10 @@
         <v>76</v>
       </c>
       <c r="H189" t="s">
-        <v>9</v>
-      </c>
-      <c r="I189" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A190">
         <v>16</v>
       </c>
@@ -6889,13 +5401,10 @@
         <v>76</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
-      </c>
-      <c r="I190" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -6918,13 +5427,10 @@
         <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>9</v>
-      </c>
-      <c r="I191" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -6947,13 +5453,10 @@
         <v>76</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
-      </c>
-      <c r="I192" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A193">
         <v>22</v>
       </c>
@@ -6976,13 +5479,10 @@
         <v>76</v>
       </c>
       <c r="H193" t="s">
-        <v>9</v>
-      </c>
-      <c r="I193" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A194">
         <v>22</v>
       </c>
@@ -7005,13 +5505,10 @@
         <v>76</v>
       </c>
       <c r="H194" t="s">
-        <v>9</v>
-      </c>
-      <c r="I194" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A195">
         <v>24</v>
       </c>
@@ -7034,13 +5531,10 @@
         <v>76</v>
       </c>
       <c r="H195" t="s">
-        <v>9</v>
-      </c>
-      <c r="I195" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -7063,13 +5557,10 @@
         <v>76</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
-      </c>
-      <c r="I196" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A197">
         <v>29</v>
       </c>
@@ -7092,13 +5583,10 @@
         <v>76</v>
       </c>
       <c r="H197" t="s">
-        <v>9</v>
-      </c>
-      <c r="I197" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -7121,13 +5609,10 @@
         <v>76</v>
       </c>
       <c r="H198" t="s">
-        <v>9</v>
-      </c>
-      <c r="I198" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A199">
         <v>29</v>
       </c>
@@ -7150,13 +5635,10 @@
         <v>76</v>
       </c>
       <c r="H199" t="s">
-        <v>30</v>
-      </c>
-      <c r="I199" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A200">
         <v>33</v>
       </c>
@@ -7179,13 +5661,10 @@
         <v>76</v>
       </c>
       <c r="H200" t="s">
-        <v>24</v>
-      </c>
-      <c r="I200" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A201">
         <v>20</v>
       </c>
@@ -7208,13 +5687,10 @@
         <v>76</v>
       </c>
       <c r="H201" t="s">
-        <v>9</v>
-      </c>
-      <c r="I201" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A202">
         <v>18</v>
       </c>
@@ -7237,13 +5713,10 @@
         <v>76</v>
       </c>
       <c r="H202" t="s">
-        <v>9</v>
-      </c>
-      <c r="I202" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -7266,13 +5739,10 @@
         <v>76</v>
       </c>
       <c r="H203" t="s">
-        <v>9</v>
-      </c>
-      <c r="I203" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -7295,13 +5765,10 @@
         <v>76</v>
       </c>
       <c r="H204" t="s">
-        <v>9</v>
-      </c>
-      <c r="I204" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -7324,13 +5791,10 @@
         <v>76</v>
       </c>
       <c r="H205" t="s">
-        <v>30</v>
-      </c>
-      <c r="I205" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A206">
         <v>32</v>
       </c>
@@ -7353,13 +5817,10 @@
         <v>76</v>
       </c>
       <c r="H206" t="s">
-        <v>24</v>
-      </c>
-      <c r="I206" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A207">
         <v>28</v>
       </c>
@@ -7382,13 +5843,10 @@
         <v>76</v>
       </c>
       <c r="H207" t="s">
-        <v>24</v>
-      </c>
-      <c r="I207" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -7411,13 +5869,10 @@
         <v>76</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
-      </c>
-      <c r="I208" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A209">
         <v>20</v>
       </c>
@@ -7440,13 +5895,10 @@
         <v>76</v>
       </c>
       <c r="H209" t="s">
-        <v>30</v>
-      </c>
-      <c r="I209" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A210">
         <v>13</v>
       </c>
@@ -7469,13 +5921,10 @@
         <v>76</v>
       </c>
       <c r="H210" t="s">
-        <v>9</v>
-      </c>
-      <c r="I210" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A211">
         <v>19</v>
       </c>
@@ -7498,13 +5947,10 @@
         <v>76</v>
       </c>
       <c r="H211" t="s">
-        <v>30</v>
-      </c>
-      <c r="I211" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A212">
         <v>19</v>
       </c>
@@ -7527,13 +5973,10 @@
         <v>76</v>
       </c>
       <c r="H212" t="s">
-        <v>24</v>
-      </c>
-      <c r="I212" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -7556,13 +5999,10 @@
         <v>76</v>
       </c>
       <c r="H213" t="s">
-        <v>30</v>
-      </c>
-      <c r="I213" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -7585,13 +6025,10 @@
         <v>76</v>
       </c>
       <c r="H214" t="s">
-        <v>9</v>
-      </c>
-      <c r="I214" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7614,13 +6051,10 @@
         <v>76</v>
       </c>
       <c r="H215" t="s">
-        <v>9</v>
-      </c>
-      <c r="I215" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A216">
         <v>13</v>
       </c>
@@ -7643,13 +6077,10 @@
         <v>76</v>
       </c>
       <c r="H216" t="s">
-        <v>9</v>
-      </c>
-      <c r="I216" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A217">
         <v>13</v>
       </c>
@@ -7672,13 +6103,10 @@
         <v>76</v>
       </c>
       <c r="H217" t="s">
-        <v>9</v>
-      </c>
-      <c r="I217" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -7701,13 +6129,10 @@
         <v>77</v>
       </c>
       <c r="H218" t="s">
-        <v>24</v>
-      </c>
-      <c r="I218" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A219">
         <v>30</v>
       </c>
@@ -7730,13 +6155,10 @@
         <v>77</v>
       </c>
       <c r="H219" t="s">
-        <v>9</v>
-      </c>
-      <c r="I219" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A220">
         <v>36</v>
       </c>
@@ -7759,13 +6181,10 @@
         <v>77</v>
       </c>
       <c r="H220" t="s">
-        <v>30</v>
-      </c>
-      <c r="I220" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -7788,13 +6207,10 @@
         <v>77</v>
       </c>
       <c r="H221" t="s">
-        <v>9</v>
-      </c>
-      <c r="I221" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -7817,13 +6233,10 @@
         <v>77</v>
       </c>
       <c r="H222" t="s">
-        <v>24</v>
-      </c>
-      <c r="I222" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -7846,13 +6259,10 @@
         <v>77</v>
       </c>
       <c r="H223" t="s">
-        <v>9</v>
-      </c>
-      <c r="I223" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A224">
         <v>17</v>
       </c>
@@ -7875,13 +6285,10 @@
         <v>77</v>
       </c>
       <c r="H224" t="s">
-        <v>9</v>
-      </c>
-      <c r="I224" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -7904,13 +6311,10 @@
         <v>77</v>
       </c>
       <c r="H225" t="s">
-        <v>9</v>
-      </c>
-      <c r="I225" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A226">
         <v>15</v>
       </c>
@@ -7933,13 +6337,10 @@
         <v>77</v>
       </c>
       <c r="H226" t="s">
-        <v>9</v>
-      </c>
-      <c r="I226" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -7962,13 +6363,10 @@
         <v>77</v>
       </c>
       <c r="H227" t="s">
-        <v>9</v>
-      </c>
-      <c r="I227" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -7991,13 +6389,10 @@
         <v>77</v>
       </c>
       <c r="H228" t="s">
-        <v>9</v>
-      </c>
-      <c r="I228" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A229">
         <v>19</v>
       </c>
@@ -8020,13 +6415,10 @@
         <v>77</v>
       </c>
       <c r="H229" t="s">
-        <v>9</v>
-      </c>
-      <c r="I229" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -8049,13 +6441,10 @@
         <v>77</v>
       </c>
       <c r="H230" t="s">
-        <v>9</v>
-      </c>
-      <c r="I230" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A231">
         <v>16</v>
       </c>
@@ -8078,13 +6467,10 @@
         <v>77</v>
       </c>
       <c r="H231" t="s">
-        <v>9</v>
-      </c>
-      <c r="I231" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -8107,13 +6493,10 @@
         <v>77</v>
       </c>
       <c r="H232" t="s">
-        <v>9</v>
-      </c>
-      <c r="I232" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -8136,13 +6519,10 @@
         <v>77</v>
       </c>
       <c r="H233" t="s">
-        <v>9</v>
-      </c>
-      <c r="I233" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A234">
         <v>16</v>
       </c>
@@ -8165,13 +6545,10 @@
         <v>77</v>
       </c>
       <c r="H234" t="s">
-        <v>9</v>
-      </c>
-      <c r="I234" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A235">
         <v>29</v>
       </c>
@@ -8194,13 +6571,10 @@
         <v>77</v>
       </c>
       <c r="H235" t="s">
-        <v>30</v>
-      </c>
-      <c r="I235" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -8223,13 +6597,10 @@
         <v>77</v>
       </c>
       <c r="H236" t="s">
-        <v>9</v>
-      </c>
-      <c r="I236" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A237">
         <v>26</v>
       </c>
@@ -8252,13 +6623,10 @@
         <v>77</v>
       </c>
       <c r="H237" t="s">
-        <v>24</v>
-      </c>
-      <c r="I237" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -8281,13 +6649,10 @@
         <v>77</v>
       </c>
       <c r="H238" t="s">
-        <v>9</v>
-      </c>
-      <c r="I238" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -8310,13 +6675,10 @@
         <v>77</v>
       </c>
       <c r="H239" t="s">
-        <v>9</v>
-      </c>
-      <c r="I239" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -8339,13 +6701,10 @@
         <v>77</v>
       </c>
       <c r="H240" t="s">
-        <v>9</v>
-      </c>
-      <c r="I240" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A241">
         <v>30</v>
       </c>
@@ -8368,13 +6727,10 @@
         <v>77</v>
       </c>
       <c r="H241" t="s">
-        <v>24</v>
-      </c>
-      <c r="I241" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -8397,13 +6753,10 @@
         <v>77</v>
       </c>
       <c r="H242" t="s">
-        <v>30</v>
-      </c>
-      <c r="I242" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A243">
         <v>22</v>
       </c>
@@ -8426,13 +6779,10 @@
         <v>77</v>
       </c>
       <c r="H243" t="s">
-        <v>24</v>
-      </c>
-      <c r="I243" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -8455,13 +6805,10 @@
         <v>77</v>
       </c>
       <c r="H244" t="s">
-        <v>30</v>
-      </c>
-      <c r="I244" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -8484,13 +6831,10 @@
         <v>77</v>
       </c>
       <c r="H245" t="s">
-        <v>24</v>
-      </c>
-      <c r="I245" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -8513,13 +6857,10 @@
         <v>78</v>
       </c>
       <c r="H246" t="s">
-        <v>30</v>
-      </c>
-      <c r="I246" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -8542,13 +6883,10 @@
         <v>78</v>
       </c>
       <c r="H247" t="s">
-        <v>9</v>
-      </c>
-      <c r="I247" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -8571,13 +6909,10 @@
         <v>78</v>
       </c>
       <c r="H248" t="s">
-        <v>24</v>
-      </c>
-      <c r="I248" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -8600,13 +6935,10 @@
         <v>78</v>
       </c>
       <c r="H249" t="s">
-        <v>24</v>
-      </c>
-      <c r="I249" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -8629,13 +6961,10 @@
         <v>78</v>
       </c>
       <c r="H250" t="s">
-        <v>24</v>
-      </c>
-      <c r="I250" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -8658,13 +6987,10 @@
         <v>78</v>
       </c>
       <c r="H251" t="s">
-        <v>9</v>
-      </c>
-      <c r="I251" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -8687,13 +7013,10 @@
         <v>78</v>
       </c>
       <c r="H252" t="s">
-        <v>9</v>
-      </c>
-      <c r="I252" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -8716,13 +7039,10 @@
         <v>78</v>
       </c>
       <c r="H253" t="s">
-        <v>9</v>
-      </c>
-      <c r="I253" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -8745,13 +7065,10 @@
         <v>78</v>
       </c>
       <c r="H254" t="s">
-        <v>9</v>
-      </c>
-      <c r="I254" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -8774,13 +7091,10 @@
         <v>78</v>
       </c>
       <c r="H255" t="s">
-        <v>9</v>
-      </c>
-      <c r="I255" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -8803,13 +7117,10 @@
         <v>78</v>
       </c>
       <c r="H256" t="s">
-        <v>9</v>
-      </c>
-      <c r="I256" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -8832,13 +7143,10 @@
         <v>78</v>
       </c>
       <c r="H257" t="s">
-        <v>9</v>
-      </c>
-      <c r="I257" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -8861,13 +7169,10 @@
         <v>78</v>
       </c>
       <c r="H258" t="s">
-        <v>9</v>
-      </c>
-      <c r="I258" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -8890,13 +7195,10 @@
         <v>78</v>
       </c>
       <c r="H259" t="s">
-        <v>9</v>
-      </c>
-      <c r="I259" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -8919,13 +7221,10 @@
         <v>78</v>
       </c>
       <c r="H260" t="s">
-        <v>9</v>
-      </c>
-      <c r="I260" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -8948,13 +7247,10 @@
         <v>78</v>
       </c>
       <c r="H261" t="s">
-        <v>9</v>
-      </c>
-      <c r="I261" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -8977,13 +7273,10 @@
         <v>78</v>
       </c>
       <c r="H262" t="s">
-        <v>9</v>
-      </c>
-      <c r="I262" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -9006,13 +7299,10 @@
         <v>78</v>
       </c>
       <c r="H263" t="s">
-        <v>9</v>
-      </c>
-      <c r="I263" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -9035,13 +7325,10 @@
         <v>78</v>
       </c>
       <c r="H264" t="s">
-        <v>9</v>
-      </c>
-      <c r="I264" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -9064,13 +7351,10 @@
         <v>78</v>
       </c>
       <c r="H265" t="s">
-        <v>9</v>
-      </c>
-      <c r="I265" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -9093,13 +7377,10 @@
         <v>78</v>
       </c>
       <c r="H266" t="s">
-        <v>9</v>
-      </c>
-      <c r="I266" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -9122,13 +7403,10 @@
         <v>78</v>
       </c>
       <c r="H267" t="s">
-        <v>9</v>
-      </c>
-      <c r="I267" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A268">
         <v>30</v>
       </c>
@@ -9151,13 +7429,10 @@
         <v>78</v>
       </c>
       <c r="H268" t="s">
-        <v>9</v>
-      </c>
-      <c r="I268" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -9180,13 +7455,10 @@
         <v>78</v>
       </c>
       <c r="H269" t="s">
-        <v>24</v>
-      </c>
-      <c r="I269" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -9209,13 +7481,10 @@
         <v>78</v>
       </c>
       <c r="H270" t="s">
-        <v>24</v>
-      </c>
-      <c r="I270" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -9238,13 +7507,10 @@
         <v>78</v>
       </c>
       <c r="H271" t="s">
-        <v>9</v>
-      </c>
-      <c r="I271" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -9267,13 +7533,10 @@
         <v>78</v>
       </c>
       <c r="H272" t="s">
-        <v>24</v>
-      </c>
-      <c r="I272" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -9296,13 +7559,10 @@
         <v>78</v>
       </c>
       <c r="H273" t="s">
-        <v>9</v>
-      </c>
-      <c r="I273" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -9325,13 +7585,10 @@
         <v>78</v>
       </c>
       <c r="H274" t="s">
-        <v>9</v>
-      </c>
-      <c r="I274" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -9354,13 +7611,10 @@
         <v>78</v>
       </c>
       <c r="H275" t="s">
-        <v>24</v>
-      </c>
-      <c r="I275" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -9383,13 +7637,10 @@
         <v>78</v>
       </c>
       <c r="H276" t="s">
-        <v>30</v>
-      </c>
-      <c r="I276" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A277">
         <v>17</v>
       </c>
@@ -9412,13 +7663,10 @@
         <v>78</v>
       </c>
       <c r="H277" t="s">
-        <v>30</v>
-      </c>
-      <c r="I277" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -9441,13 +7689,10 @@
         <v>78</v>
       </c>
       <c r="H278" t="s">
-        <v>30</v>
-      </c>
-      <c r="I278" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -9470,13 +7715,10 @@
         <v>78</v>
       </c>
       <c r="H279" t="s">
-        <v>30</v>
-      </c>
-      <c r="I279" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -9499,13 +7741,10 @@
         <v>78</v>
       </c>
       <c r="H280" t="s">
-        <v>30</v>
-      </c>
-      <c r="I280" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -9528,13 +7767,10 @@
         <v>78</v>
       </c>
       <c r="H281" t="s">
-        <v>24</v>
-      </c>
-      <c r="I281" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -9557,13 +7793,10 @@
         <v>79</v>
       </c>
       <c r="H282" t="s">
-        <v>9</v>
-      </c>
-      <c r="I282" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -9586,13 +7819,10 @@
         <v>79</v>
       </c>
       <c r="H283" t="s">
-        <v>9</v>
-      </c>
-      <c r="I283" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -9615,13 +7845,10 @@
         <v>79</v>
       </c>
       <c r="H284" t="s">
-        <v>9</v>
-      </c>
-      <c r="I284" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -9644,13 +7871,10 @@
         <v>79</v>
       </c>
       <c r="H285" t="s">
-        <v>9</v>
-      </c>
-      <c r="I285" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -9673,13 +7897,10 @@
         <v>79</v>
       </c>
       <c r="H286" t="s">
-        <v>9</v>
-      </c>
-      <c r="I286" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A287">
         <v>17</v>
       </c>
@@ -9702,13 +7923,10 @@
         <v>79</v>
       </c>
       <c r="H287" t="s">
-        <v>9</v>
-      </c>
-      <c r="I287" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -9731,13 +7949,10 @@
         <v>79</v>
       </c>
       <c r="H288" t="s">
-        <v>9</v>
-      </c>
-      <c r="I288" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -9760,13 +7975,10 @@
         <v>79</v>
       </c>
       <c r="H289" t="s">
-        <v>9</v>
-      </c>
-      <c r="I289" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -9789,13 +8001,10 @@
         <v>79</v>
       </c>
       <c r="H290" t="s">
-        <v>9</v>
-      </c>
-      <c r="I290" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -9818,13 +8027,10 @@
         <v>79</v>
       </c>
       <c r="H291" t="s">
-        <v>9</v>
-      </c>
-      <c r="I291" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -9847,13 +8053,10 @@
         <v>79</v>
       </c>
       <c r="H292" t="s">
-        <v>9</v>
-      </c>
-      <c r="I292" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -9876,13 +8079,10 @@
         <v>79</v>
       </c>
       <c r="H293" t="s">
-        <v>9</v>
-      </c>
-      <c r="I293" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -9905,13 +8105,10 @@
         <v>79</v>
       </c>
       <c r="H294" t="s">
-        <v>9</v>
-      </c>
-      <c r="I294" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -9934,13 +8131,10 @@
         <v>79</v>
       </c>
       <c r="H295" t="s">
-        <v>30</v>
-      </c>
-      <c r="I295" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -9963,13 +8157,10 @@
         <v>79</v>
       </c>
       <c r="H296" t="s">
-        <v>24</v>
-      </c>
-      <c r="I296" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -9992,13 +8183,10 @@
         <v>79</v>
       </c>
       <c r="H297" t="s">
-        <v>9</v>
-      </c>
-      <c r="I297" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -10021,13 +8209,10 @@
         <v>79</v>
       </c>
       <c r="H298" t="s">
-        <v>9</v>
-      </c>
-      <c r="I298" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -10050,13 +8235,10 @@
         <v>79</v>
       </c>
       <c r="H299" t="s">
-        <v>30</v>
-      </c>
-      <c r="I299" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A300">
         <v>23</v>
       </c>
@@ -10079,13 +8261,10 @@
         <v>79</v>
       </c>
       <c r="H300" t="s">
-        <v>9</v>
-      </c>
-      <c r="I300" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -10108,13 +8287,10 @@
         <v>79</v>
       </c>
       <c r="H301" t="s">
-        <v>30</v>
-      </c>
-      <c r="I301" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -10137,13 +8313,10 @@
         <v>79</v>
       </c>
       <c r="H302" t="s">
-        <v>9</v>
-      </c>
-      <c r="I302" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -10166,13 +8339,10 @@
         <v>79</v>
       </c>
       <c r="H303" t="s">
-        <v>9</v>
-      </c>
-      <c r="I303" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -10195,13 +8365,10 @@
         <v>79</v>
       </c>
       <c r="H304" t="s">
-        <v>9</v>
-      </c>
-      <c r="I304" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -10224,13 +8391,10 @@
         <v>79</v>
       </c>
       <c r="H305" t="s">
-        <v>24</v>
-      </c>
-      <c r="I305" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -10253,13 +8417,10 @@
         <v>79</v>
       </c>
       <c r="H306" t="s">
-        <v>30</v>
-      </c>
-      <c r="I306" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -10282,13 +8443,10 @@
         <v>79</v>
       </c>
       <c r="H307" t="s">
-        <v>9</v>
-      </c>
-      <c r="I307" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -10311,13 +8469,10 @@
         <v>79</v>
       </c>
       <c r="H308" t="s">
-        <v>9</v>
-      </c>
-      <c r="I308" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -10340,13 +8495,10 @@
         <v>79</v>
       </c>
       <c r="H309" t="s">
-        <v>9</v>
-      </c>
-      <c r="I309" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -10369,13 +8521,10 @@
         <v>79</v>
       </c>
       <c r="H310" t="s">
-        <v>9</v>
-      </c>
-      <c r="I310" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -10398,13 +8547,10 @@
         <v>80</v>
       </c>
       <c r="H311" t="s">
-        <v>30</v>
-      </c>
-      <c r="I311" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -10427,13 +8573,10 @@
         <v>80</v>
       </c>
       <c r="H312" t="s">
-        <v>24</v>
-      </c>
-      <c r="I312" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -10456,13 +8599,10 @@
         <v>80</v>
       </c>
       <c r="H313" t="s">
-        <v>9</v>
-      </c>
-      <c r="I313" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -10485,13 +8625,10 @@
         <v>80</v>
       </c>
       <c r="H314" t="s">
-        <v>24</v>
-      </c>
-      <c r="I314" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A315">
         <v>28</v>
       </c>
@@ -10514,13 +8651,10 @@
         <v>80</v>
       </c>
       <c r="H315" t="s">
-        <v>9</v>
-      </c>
-      <c r="I315" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -10543,13 +8677,10 @@
         <v>80</v>
       </c>
       <c r="H316" t="s">
-        <v>9</v>
-      </c>
-      <c r="I316" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -10572,13 +8703,10 @@
         <v>80</v>
       </c>
       <c r="H317" t="s">
-        <v>9</v>
-      </c>
-      <c r="I317" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -10601,13 +8729,10 @@
         <v>80</v>
       </c>
       <c r="H318" t="s">
-        <v>9</v>
-      </c>
-      <c r="I318" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -10630,13 +8755,10 @@
         <v>80</v>
       </c>
       <c r="H319" t="s">
-        <v>30</v>
-      </c>
-      <c r="I319" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -10659,13 +8781,10 @@
         <v>80</v>
       </c>
       <c r="H320" t="s">
-        <v>24</v>
-      </c>
-      <c r="I320" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -10688,13 +8807,10 @@
         <v>80</v>
       </c>
       <c r="H321" t="s">
-        <v>24</v>
-      </c>
-      <c r="I321" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A322">
         <v>37</v>
       </c>
@@ -10717,13 +8833,10 @@
         <v>80</v>
       </c>
       <c r="H322" t="s">
-        <v>24</v>
-      </c>
-      <c r="I322" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -10746,13 +8859,10 @@
         <v>80</v>
       </c>
       <c r="H323" t="s">
-        <v>24</v>
-      </c>
-      <c r="I323" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -10775,13 +8885,10 @@
         <v>80</v>
       </c>
       <c r="H324" t="s">
-        <v>24</v>
-      </c>
-      <c r="I324" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -10804,13 +8911,10 @@
         <v>80</v>
       </c>
       <c r="H325" t="s">
-        <v>9</v>
-      </c>
-      <c r="I325" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -10833,13 +8937,10 @@
         <v>80</v>
       </c>
       <c r="H326" t="s">
-        <v>24</v>
-      </c>
-      <c r="I326" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -10862,13 +8963,10 @@
         <v>80</v>
       </c>
       <c r="H327" t="s">
-        <v>30</v>
-      </c>
-      <c r="I327" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -10891,13 +8989,10 @@
         <v>80</v>
       </c>
       <c r="H328" t="s">
-        <v>30</v>
-      </c>
-      <c r="I328" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -10920,13 +9015,10 @@
         <v>80</v>
       </c>
       <c r="H329" t="s">
-        <v>30</v>
-      </c>
-      <c r="I329" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A330">
         <v>30</v>
       </c>
@@ -10949,13 +9041,10 @@
         <v>80</v>
       </c>
       <c r="H330" t="s">
-        <v>30</v>
-      </c>
-      <c r="I330" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -10978,13 +9067,10 @@
         <v>80</v>
       </c>
       <c r="H331" t="s">
-        <v>24</v>
-      </c>
-      <c r="I331" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -11004,13 +9090,10 @@
         <v>80</v>
       </c>
       <c r="H332" t="s">
-        <v>30</v>
-      </c>
-      <c r="I332" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -11033,13 +9116,10 @@
         <v>80</v>
       </c>
       <c r="H333" t="s">
-        <v>24</v>
-      </c>
-      <c r="I333" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -11062,13 +9142,10 @@
         <v>80</v>
       </c>
       <c r="H334" t="s">
-        <v>30</v>
-      </c>
-      <c r="I334" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -11091,13 +9168,10 @@
         <v>80</v>
       </c>
       <c r="H335" t="s">
-        <v>24</v>
-      </c>
-      <c r="I335" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -11120,13 +9194,10 @@
         <v>80</v>
       </c>
       <c r="H336" t="s">
-        <v>24</v>
-      </c>
-      <c r="I336" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A337">
         <v>35</v>
       </c>
@@ -11149,13 +9220,10 @@
         <v>80</v>
       </c>
       <c r="H337" t="s">
-        <v>30</v>
-      </c>
-      <c r="I337" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -11175,13 +9243,10 @@
         <v>80</v>
       </c>
       <c r="H338" t="s">
-        <v>9</v>
-      </c>
-      <c r="I338" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -11204,13 +9269,10 @@
         <v>80</v>
       </c>
       <c r="H339" t="s">
-        <v>24</v>
-      </c>
-      <c r="I339" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -11233,13 +9295,10 @@
         <v>81</v>
       </c>
       <c r="H340" t="s">
-        <v>9</v>
-      </c>
-      <c r="I340" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -11262,13 +9321,10 @@
         <v>81</v>
       </c>
       <c r="H341" t="s">
-        <v>9</v>
-      </c>
-      <c r="I341" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -11291,13 +9347,10 @@
         <v>81</v>
       </c>
       <c r="H342" t="s">
-        <v>9</v>
-      </c>
-      <c r="I342" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -11320,13 +9373,10 @@
         <v>81</v>
       </c>
       <c r="H343" t="s">
-        <v>9</v>
-      </c>
-      <c r="I343" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A344">
         <v>30</v>
       </c>
@@ -11349,13 +9399,10 @@
         <v>81</v>
       </c>
       <c r="H344" t="s">
-        <v>9</v>
-      </c>
-      <c r="I344" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -11378,13 +9425,10 @@
         <v>81</v>
       </c>
       <c r="H345" t="s">
-        <v>24</v>
-      </c>
-      <c r="I345" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A346">
         <v>39</v>
       </c>
@@ -11407,13 +9451,10 @@
         <v>81</v>
       </c>
       <c r="H346" t="s">
-        <v>9</v>
-      </c>
-      <c r="I346" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -11436,13 +9477,10 @@
         <v>81</v>
       </c>
       <c r="H347" t="s">
-        <v>24</v>
-      </c>
-      <c r="I347" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -11465,13 +9503,10 @@
         <v>81</v>
       </c>
       <c r="H348" t="s">
-        <v>24</v>
-      </c>
-      <c r="I348" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A349">
         <v>37</v>
       </c>
@@ -11494,13 +9529,10 @@
         <v>81</v>
       </c>
       <c r="H349" t="s">
-        <v>24</v>
-      </c>
-      <c r="I349" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -11523,13 +9555,10 @@
         <v>81</v>
       </c>
       <c r="H350" t="s">
-        <v>24</v>
-      </c>
-      <c r="I350" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -11552,13 +9581,10 @@
         <v>81</v>
       </c>
       <c r="H351" t="s">
-        <v>24</v>
-      </c>
-      <c r="I351" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -11581,13 +9607,10 @@
         <v>81</v>
       </c>
       <c r="H352" t="s">
-        <v>9</v>
-      </c>
-      <c r="I352" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -11610,13 +9633,10 @@
         <v>81</v>
       </c>
       <c r="H353" t="s">
-        <v>9</v>
-      </c>
-      <c r="I353" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -11639,13 +9659,10 @@
         <v>81</v>
       </c>
       <c r="H354" t="s">
-        <v>9</v>
-      </c>
-      <c r="I354" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A355">
         <v>33</v>
       </c>
@@ -11668,13 +9685,10 @@
         <v>81</v>
       </c>
       <c r="H355" t="s">
-        <v>30</v>
-      </c>
-      <c r="I355" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -11694,13 +9708,10 @@
         <v>81</v>
       </c>
       <c r="H356" t="s">
-        <v>30</v>
-      </c>
-      <c r="I356" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -11723,13 +9734,10 @@
         <v>81</v>
       </c>
       <c r="H357" t="s">
-        <v>24</v>
-      </c>
-      <c r="I357" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -11752,13 +9760,10 @@
         <v>81</v>
       </c>
       <c r="H358" t="s">
-        <v>24</v>
-      </c>
-      <c r="I358" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -11781,13 +9786,10 @@
         <v>81</v>
       </c>
       <c r="H359" t="s">
-        <v>24</v>
-      </c>
-      <c r="I359" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -11810,13 +9812,10 @@
         <v>81</v>
       </c>
       <c r="H360" t="s">
-        <v>24</v>
-      </c>
-      <c r="I360" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -11839,13 +9838,10 @@
         <v>81</v>
       </c>
       <c r="H361" t="s">
-        <v>30</v>
-      </c>
-      <c r="I361" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -11868,13 +9864,10 @@
         <v>81</v>
       </c>
       <c r="H362" t="s">
-        <v>30</v>
-      </c>
-      <c r="I362" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -11897,13 +9890,10 @@
         <v>81</v>
       </c>
       <c r="H363" t="s">
-        <v>24</v>
-      </c>
-      <c r="I363" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -11926,13 +9916,10 @@
         <v>81</v>
       </c>
       <c r="H364" t="s">
-        <v>24</v>
-      </c>
-      <c r="I364" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -11955,13 +9942,10 @@
         <v>81</v>
       </c>
       <c r="H365" t="s">
-        <v>9</v>
-      </c>
-      <c r="I365" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -11984,13 +9968,10 @@
         <v>81</v>
       </c>
       <c r="H366" t="s">
-        <v>9</v>
-      </c>
-      <c r="I366" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -12013,13 +9994,10 @@
         <v>81</v>
       </c>
       <c r="H367" t="s">
-        <v>9</v>
-      </c>
-      <c r="I367" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -12042,13 +10020,10 @@
         <v>81</v>
       </c>
       <c r="H368" t="s">
-        <v>9</v>
-      </c>
-      <c r="I368" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A369">
         <v>28</v>
       </c>
@@ -12071,13 +10046,10 @@
         <v>82</v>
       </c>
       <c r="H369" t="s">
-        <v>9</v>
-      </c>
-      <c r="I369" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A370">
         <v>27</v>
       </c>
@@ -12100,13 +10072,10 @@
         <v>82</v>
       </c>
       <c r="H370" t="s">
-        <v>9</v>
-      </c>
-      <c r="I370" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A371">
         <v>34</v>
       </c>
@@ -12129,13 +10098,10 @@
         <v>82</v>
       </c>
       <c r="H371" t="s">
-        <v>9</v>
-      </c>
-      <c r="I371" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A372">
         <v>31</v>
       </c>
@@ -12158,13 +10124,10 @@
         <v>82</v>
       </c>
       <c r="H372" t="s">
-        <v>9</v>
-      </c>
-      <c r="I372" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A373">
         <v>29</v>
       </c>
@@ -12187,13 +10150,10 @@
         <v>82</v>
       </c>
       <c r="H373" t="s">
-        <v>9</v>
-      </c>
-      <c r="I373" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A374">
         <v>27</v>
       </c>
@@ -12216,13 +10176,10 @@
         <v>82</v>
       </c>
       <c r="H374" t="s">
-        <v>9</v>
-      </c>
-      <c r="I374" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A375">
         <v>24</v>
       </c>
@@ -12245,13 +10202,10 @@
         <v>82</v>
       </c>
       <c r="H375" t="s">
-        <v>9</v>
-      </c>
-      <c r="I375" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A376">
         <v>23</v>
       </c>
@@ -12271,13 +10225,10 @@
         <v>82</v>
       </c>
       <c r="H376" t="s">
-        <v>9</v>
-      </c>
-      <c r="I376" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A377">
         <v>36</v>
       </c>
@@ -12300,13 +10251,10 @@
         <v>82</v>
       </c>
       <c r="H377" t="s">
-        <v>30</v>
-      </c>
-      <c r="I377" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A378">
         <v>37</v>
       </c>
@@ -12329,13 +10277,10 @@
         <v>82</v>
       </c>
       <c r="H378" t="s">
-        <v>24</v>
-      </c>
-      <c r="I378" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A379">
         <v>31</v>
       </c>
@@ -12358,13 +10303,10 @@
         <v>82</v>
       </c>
       <c r="H379" t="s">
-        <v>24</v>
-      </c>
-      <c r="I379" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A380">
         <v>38</v>
       </c>
@@ -12387,13 +10329,10 @@
         <v>82</v>
       </c>
       <c r="H380" t="s">
-        <v>9</v>
-      </c>
-      <c r="I380" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A381">
         <v>36</v>
       </c>
@@ -12416,13 +10355,10 @@
         <v>82</v>
       </c>
       <c r="H381" t="s">
-        <v>9</v>
-      </c>
-      <c r="I381" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A382">
         <v>36</v>
       </c>
@@ -12445,13 +10381,10 @@
         <v>82</v>
       </c>
       <c r="H382" t="s">
-        <v>24</v>
-      </c>
-      <c r="I382" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A383">
         <v>36</v>
       </c>
@@ -12474,13 +10407,10 @@
         <v>82</v>
       </c>
       <c r="H383" t="s">
-        <v>24</v>
-      </c>
-      <c r="I383" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A384">
         <v>34</v>
       </c>
@@ -12503,13 +10433,10 @@
         <v>82</v>
       </c>
       <c r="H384" t="s">
-        <v>24</v>
-      </c>
-      <c r="I384" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A385">
         <v>38</v>
       </c>
@@ -12532,13 +10459,10 @@
         <v>82</v>
       </c>
       <c r="H385" t="s">
-        <v>24</v>
-      </c>
-      <c r="I385" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A386">
         <v>32</v>
       </c>
@@ -12561,13 +10485,10 @@
         <v>82</v>
       </c>
       <c r="H386" t="s">
-        <v>24</v>
-      </c>
-      <c r="I386" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A387">
         <v>38</v>
       </c>
@@ -12590,13 +10511,10 @@
         <v>82</v>
       </c>
       <c r="H387" t="s">
-        <v>24</v>
-      </c>
-      <c r="I387" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A388">
         <v>25</v>
       </c>
@@ -12619,13 +10537,10 @@
         <v>82</v>
       </c>
       <c r="H388" t="s">
-        <v>9</v>
-      </c>
-      <c r="I388" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A389">
         <v>38</v>
       </c>
@@ -12648,13 +10563,10 @@
         <v>82</v>
       </c>
       <c r="H389" t="s">
-        <v>9</v>
-      </c>
-      <c r="I389" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A390">
         <v>26</v>
       </c>
@@ -12677,13 +10589,10 @@
         <v>82</v>
       </c>
       <c r="H390" t="s">
-        <v>9</v>
-      </c>
-      <c r="I390" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A391">
         <v>22</v>
       </c>
@@ -12706,13 +10615,10 @@
         <v>82</v>
       </c>
       <c r="H391" t="s">
-        <v>9</v>
-      </c>
-      <c r="I391" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A392">
         <v>32</v>
       </c>
@@ -12735,13 +10641,10 @@
         <v>82</v>
       </c>
       <c r="H392" t="s">
-        <v>24</v>
-      </c>
-      <c r="I392" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A393">
         <v>36</v>
       </c>
@@ -12764,13 +10667,10 @@
         <v>82</v>
       </c>
       <c r="H393" t="s">
-        <v>9</v>
-      </c>
-      <c r="I393" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A394">
         <v>27</v>
       </c>
@@ -12793,13 +10693,10 @@
         <v>82</v>
       </c>
       <c r="H394" t="s">
-        <v>9</v>
-      </c>
-      <c r="I394" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A395">
         <v>27</v>
       </c>
@@ -12822,13 +10719,10 @@
         <v>82</v>
       </c>
       <c r="H395" t="s">
-        <v>9</v>
-      </c>
-      <c r="I395" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A396">
         <v>44</v>
       </c>
@@ -12851,13 +10745,10 @@
         <v>82</v>
       </c>
       <c r="H396" t="s">
-        <v>30</v>
-      </c>
-      <c r="I396" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A397">
         <v>32</v>
       </c>
@@ -12880,13 +10771,10 @@
         <v>82</v>
       </c>
       <c r="H397" t="s">
-        <v>9</v>
-      </c>
-      <c r="I397" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A398">
         <v>28</v>
       </c>
@@ -12909,13 +10797,10 @@
         <v>82</v>
       </c>
       <c r="H398" t="s">
-        <v>9</v>
-      </c>
-      <c r="I398" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.65">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.65">
       <c r="A399">
         <v>31</v>
       </c>
@@ -12938,10 +10823,7 @@
         <v>82</v>
       </c>
       <c r="H399" t="s">
-        <v>9</v>
-      </c>
-      <c r="I399" t="s">
-        <v>316</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
